--- a/Relatorios/Scraping-ABSOLAR.xlsx
+++ b/Relatorios/Scraping-ABSOLAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diretorio\Web-Scraping\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D1E43-91D8-4D17-9A7D-E7D9310E599C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE8544-3023-4E1B-92D0-312C55F0E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,17 +397,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
